--- a/docs/06_api_design/api_specifications.xlsx
+++ b/docs/06_api_design/api_specifications.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Farheen\OBE-TRACKING-SYSTEM\docs\06_api_design\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3DE02E-E589-4DFB-B2B0-5A868F62E23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,11 +24,665 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="211">
+  <si>
+    <t>APP: AUTH</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Endpoint</t>
+  </si>
+  <si>
+    <t>Auth</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>/auth/login/</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>All system users</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>/auth/logout/</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>All authenticated users</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>/auth/profile/</t>
+  </si>
+  <si>
+    <t>APP: USERS &amp; RBAC</t>
+  </si>
+  <si>
+    <t>Users (Admin only)</t>
+  </si>
+  <si>
+    <t>List users</t>
+  </si>
+  <si>
+    <t>/users/</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Create user</t>
+  </si>
+  <si>
+    <t>View user</t>
+  </si>
+  <si>
+    <t>/users/{id}/</t>
+  </si>
+  <si>
+    <t>Update user</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>Disable user</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>Roles (Read only)</t>
+  </si>
+  <si>
+    <t>List roles</t>
+  </si>
+  <si>
+    <t>/roles/</t>
+  </si>
+  <si>
+    <t>APP: ACADEMIC MASTER DATA</t>
+  </si>
+  <si>
+    <t>Programs</t>
+  </si>
+  <si>
+    <t>List programs</t>
+  </si>
+  <si>
+    <t>/academics/programs/</t>
+  </si>
+  <si>
+    <t>Admin, HOD, Coordinator</t>
+  </si>
+  <si>
+    <t>Create program</t>
+  </si>
+  <si>
+    <t>View program</t>
+  </si>
+  <si>
+    <t>/academics/programs/{id}/</t>
+  </si>
+  <si>
+    <t>Admin, HOD</t>
+  </si>
+  <si>
+    <t>Update program</t>
+  </si>
+  <si>
+    <t>Disable program</t>
+  </si>
+  <si>
+    <t>Courses</t>
+  </si>
+  <si>
+    <t>List courses</t>
+  </si>
+  <si>
+    <t>/academics/courses/</t>
+  </si>
+  <si>
+    <t>Admin, HOD, Coordinator, Faculty</t>
+  </si>
+  <si>
+    <t>Create course</t>
+  </si>
+  <si>
+    <t>HOD, Coordinator</t>
+  </si>
+  <si>
+    <t>View course</t>
+  </si>
+  <si>
+    <t>/academics/courses/{id}/</t>
+  </si>
+  <si>
+    <t>Update course</t>
+  </si>
+  <si>
+    <t>Disable course</t>
+  </si>
+  <si>
+    <t>CO Statements</t>
+  </si>
+  <si>
+    <t>List COs</t>
+  </si>
+  <si>
+    <t>/academics/courses/{course_id}/cos/</t>
+  </si>
+  <si>
+    <t>Create CO</t>
+  </si>
+  <si>
+    <t>Update CO</t>
+  </si>
+  <si>
+    <t>/academics/cos/{id}/</t>
+  </si>
+  <si>
+    <t>PO &amp; PSO Statements</t>
+  </si>
+  <si>
+    <t>List POs</t>
+  </si>
+  <si>
+    <t>/academics/pos/</t>
+  </si>
+  <si>
+    <t>All academic roles</t>
+  </si>
+  <si>
+    <t>Update PO</t>
+  </si>
+  <si>
+    <t>/academics/pos/{id}/</t>
+  </si>
+  <si>
+    <t>Coordinator</t>
+  </si>
+  <si>
+    <t>List PSOs</t>
+  </si>
+  <si>
+    <t>/academics/psos/</t>
+  </si>
+  <si>
+    <t>Update PSO</t>
+  </si>
+  <si>
+    <t>/academics/psos/{id}/</t>
+  </si>
+  <si>
+    <t>APP: CO–PO–PSO MAPPING</t>
+  </si>
+  <si>
+    <t>View mapping</t>
+  </si>
+  <si>
+    <t>Faculty, HOD, Coordinator</t>
+  </si>
+  <si>
+    <t>/mappings/</t>
+  </si>
+  <si>
+    <t>Save mapping</t>
+  </si>
+  <si>
+    <t>Faculty</t>
+  </si>
+  <si>
+    <t>/mappings/{id}/</t>
+  </si>
+  <si>
+    <t>APP: TARGET SETTING</t>
+  </si>
+  <si>
+    <t>View target</t>
+  </si>
+  <si>
+    <t>Assign target</t>
+  </si>
+  <si>
+    <t>/targets/</t>
+  </si>
+  <si>
+    <t>Update target</t>
+  </si>
+  <si>
+    <t>/targets/{id}/</t>
+  </si>
+  <si>
+    <t>APP: ASSESSMENTS &amp; MARKS</t>
+  </si>
+  <si>
+    <t>List assessments</t>
+  </si>
+  <si>
+    <t>Faculty, HOD</t>
+  </si>
+  <si>
+    <t>Create assessment</t>
+  </si>
+  <si>
+    <t>/assessments/</t>
+  </si>
+  <si>
+    <t>Update assessment</t>
+  </si>
+  <si>
+    <t>/assessments/{id}/</t>
+  </si>
+  <si>
+    <t>Enter marks</t>
+  </si>
+  <si>
+    <t>/marks/</t>
+  </si>
+  <si>
+    <t>View marks</t>
+  </si>
+  <si>
+    <t>APP: CIS (DIRECT &amp; INDIRECT)</t>
+  </si>
+  <si>
+    <t>Direct CIS</t>
+  </si>
+  <si>
+    <t>/cis/direct/</t>
+  </si>
+  <si>
+    <t>View report</t>
+  </si>
+  <si>
+    <t>List tools</t>
+  </si>
+  <si>
+    <t>/cis/indirect/tools/</t>
+  </si>
+  <si>
+    <t>Submit survey</t>
+  </si>
+  <si>
+    <t>/cis/indirect/surveys/</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>APP: ATTAINMENT</t>
+  </si>
+  <si>
+    <t>Calculate attainment</t>
+  </si>
+  <si>
+    <t>/attainment/calculate/</t>
+  </si>
+  <si>
+    <t>View CO attainment</t>
+  </si>
+  <si>
+    <t>View PO attainment</t>
+  </si>
+  <si>
+    <t>HOD, Auditor</t>
+  </si>
+  <si>
+    <t>View PSO attainment</t>
+  </si>
+  <si>
+    <t>Create snapshot</t>
+  </si>
+  <si>
+    <t>/attainment/snapshot/</t>
+  </si>
+  <si>
+    <t>Snapshot history</t>
+  </si>
+  <si>
+    <t>/attainment/snapshot/history/</t>
+  </si>
+  <si>
+    <t>Admin, Auditor</t>
+  </si>
+  <si>
+    <t>Auditor</t>
+  </si>
+  <si>
+    <t>APP: AUDIT &amp; VERIFICATION</t>
+  </si>
+  <si>
+    <t>/audit/logs/</t>
+  </si>
+  <si>
+    <t>Verify record</t>
+  </si>
+  <si>
+    <t>/audit/verify/</t>
+  </si>
+  <si>
+    <t>Add remark</t>
+  </si>
+  <si>
+    <t>/audit/remark/</t>
+  </si>
+  <si>
+    <t>────────────────────────────────</t>
+  </si>
+  <si>
+    <t>Request Parameters</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>email, password</t>
+  </si>
+  <si>
+    <t>access_token, refresh_token, user_id, role</t>
+  </si>
+  <si>
+    <t>none (JWT header)</t>
+  </si>
+  <si>
+    <t>success message</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>user_id, name, email, role, status</t>
+  </si>
+  <si>
+    <t>filters (role, status optional)</t>
+  </si>
+  <si>
+    <t>list of users</t>
+  </si>
+  <si>
+    <t>name, email, role, department</t>
+  </si>
+  <si>
+    <t>user_id, status</t>
+  </si>
+  <si>
+    <t>user_id (path)</t>
+  </si>
+  <si>
+    <t>full user details</t>
+  </si>
+  <si>
+    <t>role, status</t>
+  </si>
+  <si>
+    <t>updated user</t>
+  </si>
+  <si>
+    <t>soft delete confirmation</t>
+  </si>
+  <si>
+    <t>role list</t>
+  </si>
+  <si>
+    <t>program list</t>
+  </si>
+  <si>
+    <t>name, duration</t>
+  </si>
+  <si>
+    <t>program_id</t>
+  </si>
+  <si>
+    <t>program details</t>
+  </si>
+  <si>
+    <t>name, status</t>
+  </si>
+  <si>
+    <t>updated program</t>
+  </si>
+  <si>
+    <t>disable confirmation</t>
+  </si>
+  <si>
+    <t>program_id optional</t>
+  </si>
+  <si>
+    <t>course list</t>
+  </si>
+  <si>
+    <t>course_code, name, program_id</t>
+  </si>
+  <si>
+    <t>course_id</t>
+  </si>
+  <si>
+    <t>course details</t>
+  </si>
+  <si>
+    <t>updated course</t>
+  </si>
+  <si>
+    <t>CO list</t>
+  </si>
+  <si>
+    <t>co_code, description</t>
+  </si>
+  <si>
+    <t>CO created</t>
+  </si>
+  <si>
+    <t>description, status</t>
+  </si>
+  <si>
+    <t>updated CO</t>
+  </si>
+  <si>
+    <t>Academic roles</t>
+  </si>
+  <si>
+    <t>PO list</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>updated PO</t>
+  </si>
+  <si>
+    <t>PSO list</t>
+  </si>
+  <si>
+    <t>updated PSO</t>
+  </si>
+  <si>
+    <t>mapping data</t>
+  </si>
+  <si>
+    <t>course_id, mapping matrix</t>
+  </si>
+  <si>
+    <t>saved mapping</t>
+  </si>
+  <si>
+    <t>mapping_id</t>
+  </si>
+  <si>
+    <t>mapping record</t>
+  </si>
+  <si>
+    <t>target data</t>
+  </si>
+  <si>
+    <t>course_id, target_value</t>
+  </si>
+  <si>
+    <t>target assigned</t>
+  </si>
+  <si>
+    <t>target_value</t>
+  </si>
+  <si>
+    <t>updated target</t>
+  </si>
+  <si>
+    <t>assessment list</t>
+  </si>
+  <si>
+    <t>type, weightage, course_id</t>
+  </si>
+  <si>
+    <t>assessment_id</t>
+  </si>
+  <si>
+    <t>weightage</t>
+  </si>
+  <si>
+    <t>updated assessment</t>
+  </si>
+  <si>
+    <t>assessment_id, marks_data</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>marks summary</t>
+  </si>
+  <si>
+    <t>Calculate CIS</t>
+  </si>
+  <si>
+    <t>calculation status</t>
+  </si>
+  <si>
+    <t>/cis/direct/report/</t>
+  </si>
+  <si>
+    <t>CIS report</t>
+  </si>
+  <si>
+    <t>Indirect CIS</t>
+  </si>
+  <si>
+    <t>tool list</t>
+  </si>
+  <si>
+    <t>Student, Faculty</t>
+  </si>
+  <si>
+    <t>answers, tool_id</t>
+  </si>
+  <si>
+    <t>submission status</t>
+  </si>
+  <si>
+    <t>/cis/indirect/report/</t>
+  </si>
+  <si>
+    <t>indirect CIS report</t>
+  </si>
+  <si>
+    <t>/attainment/co/</t>
+  </si>
+  <si>
+    <t>CO attainment</t>
+  </si>
+  <si>
+    <t>/attainment/po/</t>
+  </si>
+  <si>
+    <t>PO attainment</t>
+  </si>
+  <si>
+    <t>/attainment/pso/</t>
+  </si>
+  <si>
+    <t>PSO attainment</t>
+  </si>
+  <si>
+    <t>Snapshot</t>
+  </si>
+  <si>
+    <t>month, year</t>
+  </si>
+  <si>
+    <t>snapshot_id</t>
+  </si>
+  <si>
+    <t>snapshot list</t>
+  </si>
+  <si>
+    <t>View audit logs</t>
+  </si>
+  <si>
+    <t>filters (date, module)</t>
+  </si>
+  <si>
+    <t>audit entries</t>
+  </si>
+  <si>
+    <t>object_type, object_id</t>
+  </si>
+  <si>
+    <t>verification status</t>
+  </si>
+  <si>
+    <t>object_id, remark</t>
+  </si>
+  <si>
+    <t>remark saved</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -37,7 +697,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +705,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +1027,2535 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="29.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22" style="4" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+    </row>
+    <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+    </row>
+    <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>122</v>
+      </c>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>122</v>
+      </c>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+    </row>
+    <row r="69" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>122</v>
+      </c>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+    </row>
+    <row r="78" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>122</v>
+      </c>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>122</v>
+      </c>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+    </row>
+    <row r="87" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>122</v>
+      </c>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>122</v>
+      </c>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97"/>
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>95</v>
+      </c>
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+    </row>
+    <row r="100" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103"/>
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>187</v>
+      </c>
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105"/>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+    </row>
+    <row r="106" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110"/>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>122</v>
+      </c>
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>103</v>
+      </c>
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>122</v>
+      </c>
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114"/>
+      <c r="B114"/>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
+    </row>
+    <row r="115" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120"/>
+      <c r="B120"/>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120"/>
+      <c r="G120"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>200</v>
+      </c>
+      <c r="B121"/>
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="F121"/>
+      <c r="G121"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122"/>
+      <c r="B122"/>
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122"/>
+    </row>
+    <row r="123" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126"/>
+      <c r="B126"/>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126"/>
+      <c r="G126"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>122</v>
+      </c>
+      <c r="B127"/>
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127"/>
+      <c r="G127"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>116</v>
+      </c>
+      <c r="B128"/>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>122</v>
+      </c>
+      <c r="B129"/>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129"/>
+      <c r="G129"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130"/>
+      <c r="B130"/>
+      <c r="C130"/>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130"/>
+      <c r="G130"/>
+    </row>
+    <row r="131" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135"/>
+      <c r="B135"/>
+      <c r="C135"/>
+      <c r="D135"/>
+      <c r="E135"/>
+      <c r="F135"/>
+      <c r="G135"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136"/>
+      <c r="B136"/>
+      <c r="C136"/>
+      <c r="D136"/>
+      <c r="E136"/>
+      <c r="F136"/>
+      <c r="G136"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" s="1"/>
+      <c r="B137"/>
+      <c r="C137"/>
+      <c r="D137"/>
+      <c r="E137"/>
+      <c r="F137"/>
+      <c r="G137"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="1"/>
+      <c r="B138"/>
+      <c r="C138"/>
+      <c r="D138"/>
+      <c r="E138"/>
+      <c r="F138"/>
+      <c r="G138"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" s="1"/>
+      <c r="B139"/>
+      <c r="C139"/>
+      <c r="D139"/>
+      <c r="E139"/>
+      <c r="F139"/>
+      <c r="G139"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" s="1"/>
+      <c r="B140"/>
+      <c r="C140"/>
+      <c r="D140"/>
+      <c r="E140"/>
+      <c r="F140"/>
+      <c r="G140"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" s="1"/>
+      <c r="B141"/>
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="E141"/>
+      <c r="F141"/>
+      <c r="G141"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" s="1"/>
+      <c r="B142"/>
+      <c r="C142"/>
+      <c r="D142"/>
+      <c r="E142"/>
+      <c r="F142"/>
+      <c r="G142"/>
+    </row>
+    <row r="145" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A145" s="6"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="7"/>
+      <c r="B147" s="7"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="8"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="8"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="8"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="8"/>
+      <c r="D150" s="8"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="8"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="8"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="8"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="8"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="8"/>
+      <c r="D153" s="8"/>
+      <c r="E153" s="8"/>
+      <c r="F153" s="8"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="8"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
+      <c r="E154" s="8"/>
+      <c r="F154" s="8"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="8"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="8"/>
+      <c r="F155" s="8"/>
+    </row>
+    <row r="161" spans="1:5" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A161" s="6"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="7"/>
+      <c r="B163" s="7"/>
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="8"/>
+      <c r="B164" s="8"/>
+      <c r="C164" s="8"/>
+      <c r="D164" s="8"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="8"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="8"/>
+      <c r="D165" s="8"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="8"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="8"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="8"/>
+      <c r="D167" s="8"/>
+    </row>
+    <row r="170" spans="1:5" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A170" s="6"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="7"/>
+      <c r="B172" s="7"/>
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="7"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="8"/>
+      <c r="B173" s="8"/>
+      <c r="C173" s="8"/>
+      <c r="D173" s="8"/>
+      <c r="E173" s="8"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="8"/>
+      <c r="B174" s="8"/>
+      <c r="C174" s="8"/>
+      <c r="D174" s="8"/>
+      <c r="E174" s="8"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="8"/>
+      <c r="B175" s="8"/>
+      <c r="C175" s="8"/>
+      <c r="D175" s="8"/>
+      <c r="E175" s="8"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="8"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="8"/>
+      <c r="D176" s="8"/>
+      <c r="E176" s="8"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="8"/>
+      <c r="B177" s="8"/>
+      <c r="C177" s="8"/>
+      <c r="D177" s="8"/>
+      <c r="E177" s="8"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="8"/>
+      <c r="B178" s="8"/>
+      <c r="C178" s="8"/>
+      <c r="D178" s="8"/>
+      <c r="E178" s="8"/>
+    </row>
+    <row r="181" spans="1:5" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A181" s="6"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="7"/>
+      <c r="B183" s="7"/>
+      <c r="C183" s="7"/>
+      <c r="D183" s="7"/>
+      <c r="E183" s="7"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="8"/>
+      <c r="B184" s="8"/>
+      <c r="C184" s="8"/>
+      <c r="D184" s="8"/>
+      <c r="E184" s="8"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="8"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="8"/>
+      <c r="D185" s="8"/>
+      <c r="E185" s="8"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="8"/>
+      <c r="B186" s="8"/>
+      <c r="C186" s="8"/>
+      <c r="D186" s="8"/>
+      <c r="E186" s="8"/>
+    </row>
+    <row r="189" spans="1:5" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A189" s="6"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="7"/>
+      <c r="B191" s="7"/>
+      <c r="C191" s="7"/>
+      <c r="D191" s="7"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="8"/>
+      <c r="B192" s="8"/>
+      <c r="C192" s="8"/>
+      <c r="D192" s="8"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" s="8"/>
+      <c r="B193" s="8"/>
+      <c r="C193" s="8"/>
+      <c r="D193" s="8"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" s="5"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" s="5"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="5"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" s="5"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" s="5"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="44" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="27" max="16383" man="1"/>
+    <brk id="82" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>